--- a/data/evaluation/evaluation_North_Autumn_Peppers.xlsx
+++ b/data/evaluation/evaluation_North_Autumn_Peppers.xlsx
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1269.810644257703</v>
+        <v>1275.938095238095</v>
       </c>
       <c r="C3" t="n">
-        <v>2575910.905679605</v>
+        <v>2578795.91384954</v>
       </c>
       <c r="D3" t="n">
-        <v>1604.964456204437</v>
+        <v>1605.862981032174</v>
       </c>
       <c r="E3" t="n">
-        <v>0.08492619770428844</v>
+        <v>0.08390131932441303</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1356.970276710267</v>
+        <v>1375.879611226457</v>
       </c>
       <c r="C4" t="n">
-        <v>2508844.349076991</v>
+        <v>2583077.238860005</v>
       </c>
       <c r="D4" t="n">
-        <v>1583.93318958755</v>
+        <v>1607.195457578202</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1087511090480457</v>
+        <v>0.08238040944063096</v>
       </c>
     </row>
     <row r="5">
